--- a/users.xlsx
+++ b/users.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5646DE1E-5144-4989-AF4D-E1D59D0D972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24235DD4-CC6D-4F43-B55F-D291BE927330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10212" yWindow="2052" windowWidth="14256" windowHeight="9708" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="services" sheetId="1" r:id="rId1"/>
     <sheet name="categories" sheetId="2" r:id="rId2"/>
+    <sheet name="clients" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -54,9 +55,6 @@
     <t>category_name</t>
   </si>
   <si>
-    <t>first cat</t>
-  </si>
-  <si>
     <t>sec cat</t>
   </si>
   <si>
@@ -67,16 +65,36 @@
   </si>
   <si>
     <t>fifth cat</t>
+  </si>
+  <si>
+    <t>jawad makary</t>
+  </si>
+  <si>
+    <t>imageUrl</t>
+  </si>
+  <si>
+    <t>https://avatars.githubusercontent.com/u/69002670?v=4</t>
+  </si>
+  <si>
+    <t>https://media-exp1.licdn.com/dms/image/C5616AQHncNHiA_hXnA/profile-displaybackgroundimage-shrink_350_1400/0/1626986161357?e=1640217600&amp;v=beta&amp;t=2hN4t5bC4UCTCrMIJurrZm8WxHvxy9LqiqK2KrFcv2k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,13 +117,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -386,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -483,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8BA582-992B-4A9E-8124-49171C669ED3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +526,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -513,7 +534,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -521,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -529,7 +550,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -537,10 +558,56 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303B5272-D721-465C-A5B3-454635A6DBC3}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="181.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{ECA07E82-6D89-424C-BC5A-01D72DE14123}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{5EEC3E63-603C-4E0F-BE71-3369137D4498}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/users.xlsx
+++ b/users.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24235DD4-CC6D-4F43-B55F-D291BE927330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74C5CEF-A1EA-4A8B-AEF0-0C0EA981BB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="services" sheetId="1" r:id="rId1"/>
     <sheet name="categories" sheetId="2" r:id="rId2"/>
     <sheet name="clients" sheetId="3" r:id="rId3"/>
+    <sheet name="testimonials" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -77,6 +78,36 @@
   </si>
   <si>
     <t>https://media-exp1.licdn.com/dms/image/C5616AQHncNHiA_hXnA/profile-displaybackgroundimage-shrink_350_1400/0/1626986161357?e=1640217600&amp;v=beta&amp;t=2hN4t5bC4UCTCrMIJurrZm8WxHvxy9LqiqK2KrFcv2k</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>jawad</t>
+  </si>
+  <si>
+    <t>halby</t>
+  </si>
+  <si>
+    <t>makary</t>
+  </si>
+  <si>
+    <t>web dev</t>
+  </si>
+  <si>
+    <t>app dev</t>
+  </si>
+  <si>
+    <t>full stack dev</t>
+  </si>
+  <si>
+    <t>lorem ipsum</t>
   </si>
 </sst>
 </file>
@@ -570,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{303B5272-D721-465C-A5B3-454635A6DBC3}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,4 +641,97 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D7DE48-303A-42C3-A724-D5DBB701D505}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
+    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{7FB31E19-C111-4B8B-BBAA-3407760F2E82}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{04AE1B84-0D9D-49DB-AF5D-FC0D534CE475}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{EB927EDC-095E-4492-B539-36BC2DE7FC20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>